--- a/Output/summary_sorted/summary_sorted_msni_district_popgroup.xlsx
+++ b/Output/summary_sorted/summary_sorted_msni_district_popgroup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="597">
   <si>
     <t>governorate</t>
   </si>
@@ -20,6 +20,33 @@
     <t>district</t>
   </si>
   <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a1_min</t>
+  </si>
+  <si>
+    <t>a1_max</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a2_min</t>
+  </si>
+  <si>
+    <t>a2_max</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a3_min</t>
+  </si>
+  <si>
+    <t>a3_max</t>
+  </si>
+  <si>
     <t>coping_mechanism</t>
   </si>
   <si>
@@ -29,6 +56,69 @@
     <t>coping_mechanism_max</t>
   </si>
   <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b1_min</t>
+  </si>
+  <si>
+    <t>b1_max</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b2_min</t>
+  </si>
+  <si>
+    <t>b2_max</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b3_min</t>
+  </si>
+  <si>
+    <t>b3_max</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b4_min</t>
+  </si>
+  <si>
+    <t>b4_max</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b5_min</t>
+  </si>
+  <si>
+    <t>b5_max</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b6_min</t>
+  </si>
+  <si>
+    <t>b6_max</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b7_min</t>
+  </si>
+  <si>
+    <t>b7_max</t>
+  </si>
+  <si>
     <t>vulnerability_1</t>
   </si>
   <si>
@@ -65,13 +155,49 @@
     <t>vulnerability_4_max</t>
   </si>
   <si>
-    <t>severe_vulnerability</t>
-  </si>
-  <si>
-    <t>severe_vulnerability_min</t>
-  </si>
-  <si>
-    <t>severe_vulnerability_max</t>
+    <t>final_msni_vulnerability</t>
+  </si>
+  <si>
+    <t>final_msni_vulnerability_min</t>
+  </si>
+  <si>
+    <t>final_msni_vulnerability_max</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c1_min</t>
+  </si>
+  <si>
+    <t>c1_max</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c2_min</t>
+  </si>
+  <si>
+    <t>c2_max</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c3_min</t>
+  </si>
+  <si>
+    <t>c3_max</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c4_min</t>
+  </si>
+  <si>
+    <t>c4_max</t>
   </si>
   <si>
     <t>education_1</t>
@@ -110,13 +236,67 @@
     <t>education_4_max</t>
   </si>
   <si>
-    <t>severe_education</t>
-  </si>
-  <si>
-    <t>severe_education_min</t>
-  </si>
-  <si>
-    <t>severe_education_max</t>
+    <t>final_msni_education</t>
+  </si>
+  <si>
+    <t>final_msni_education_min</t>
+  </si>
+  <si>
+    <t>final_msni_education_max</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d1_min</t>
+  </si>
+  <si>
+    <t>d1_max</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d2_min</t>
+  </si>
+  <si>
+    <t>d2_max</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d3_min</t>
+  </si>
+  <si>
+    <t>d3_max</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d4_min</t>
+  </si>
+  <si>
+    <t>d4_max</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d5_min</t>
+  </si>
+  <si>
+    <t>d5_max</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d6_min</t>
+  </si>
+  <si>
+    <t>d6_max</t>
   </si>
   <si>
     <t>livelihoods_1</t>
@@ -155,13 +335,40 @@
     <t>livelihoods_4_max</t>
   </si>
   <si>
-    <t>severe_livelihoods</t>
-  </si>
-  <si>
-    <t>severe_livelihoods_min</t>
-  </si>
-  <si>
-    <t>severe_livelihoods_max</t>
+    <t>final_msni_livelihoods</t>
+  </si>
+  <si>
+    <t>final_msni_livelihoods_min</t>
+  </si>
+  <si>
+    <t>final_msni_livelihoods_max</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e1_min</t>
+  </si>
+  <si>
+    <t>e1_max</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e2_min</t>
+  </si>
+  <si>
+    <t>e2_max</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e3_min</t>
+  </si>
+  <si>
+    <t>e3_max</t>
   </si>
   <si>
     <t>food_security_1</t>
@@ -200,6 +407,87 @@
     <t>food_security_4_max</t>
   </si>
   <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f1_min</t>
+  </si>
+  <si>
+    <t>f1_max</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f2_min</t>
+  </si>
+  <si>
+    <t>f2_max</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f3_min</t>
+  </si>
+  <si>
+    <t>f3_max</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f4_min</t>
+  </si>
+  <si>
+    <t>f4_max</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f5_min</t>
+  </si>
+  <si>
+    <t>f5_max</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f6_min</t>
+  </si>
+  <si>
+    <t>f6_max</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f7_min</t>
+  </si>
+  <si>
+    <t>f7_max</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>f8_min</t>
+  </si>
+  <si>
+    <t>f8_max</t>
+  </si>
+  <si>
+    <t>f9</t>
+  </si>
+  <si>
+    <t>f9_min</t>
+  </si>
+  <si>
+    <t>f9_max</t>
+  </si>
+  <si>
     <t>protection_1</t>
   </si>
   <si>
@@ -236,13 +524,49 @@
     <t>protection_4_max</t>
   </si>
   <si>
-    <t>severe_protection</t>
-  </si>
-  <si>
-    <t>severe_protection_min</t>
-  </si>
-  <si>
-    <t>severe_protection_max</t>
+    <t>final_msni_protection</t>
+  </si>
+  <si>
+    <t>final_msni_protection_min</t>
+  </si>
+  <si>
+    <t>final_msni_protection_max</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g1_min</t>
+  </si>
+  <si>
+    <t>g1_max</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g2_min</t>
+  </si>
+  <si>
+    <t>g2_max</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g3_min</t>
+  </si>
+  <si>
+    <t>g3_max</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g4_min</t>
+  </si>
+  <si>
+    <t>g4_max</t>
   </si>
   <si>
     <t>health_1</t>
@@ -272,13 +596,40 @@
     <t>health_3_max</t>
   </si>
   <si>
-    <t>severe_health</t>
-  </si>
-  <si>
-    <t>severe_health_min</t>
-  </si>
-  <si>
-    <t>severe_health_max</t>
+    <t>final_msni_health</t>
+  </si>
+  <si>
+    <t>final_msni_health_min</t>
+  </si>
+  <si>
+    <t>final_msni_health_max</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h1_min</t>
+  </si>
+  <si>
+    <t>h1_max</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h2_min</t>
+  </si>
+  <si>
+    <t>h2_max</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h3_min</t>
+  </si>
+  <si>
+    <t>h3_max</t>
   </si>
   <si>
     <t>snfi_1</t>
@@ -317,13 +668,49 @@
     <t>snfi_4_max</t>
   </si>
   <si>
-    <t>severe_snfi</t>
-  </si>
-  <si>
-    <t>severe_snfi_min</t>
-  </si>
-  <si>
-    <t>severe_snfi_max</t>
+    <t>final_msni_snfi</t>
+  </si>
+  <si>
+    <t>final_msni_snfi_min</t>
+  </si>
+  <si>
+    <t>final_msni_snfi_max</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>i1_min</t>
+  </si>
+  <si>
+    <t>i1_max</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>i2_min</t>
+  </si>
+  <si>
+    <t>i2_max</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>i3_min</t>
+  </si>
+  <si>
+    <t>i3_max</t>
+  </si>
+  <si>
+    <t>i4</t>
+  </si>
+  <si>
+    <t>i4_min</t>
+  </si>
+  <si>
+    <t>i4_max</t>
   </si>
   <si>
     <t>wash_1</t>
@@ -362,42 +749,228 @@
     <t>wash_4_max</t>
   </si>
   <si>
-    <t>severe_wash</t>
-  </si>
-  <si>
-    <t>severe_wash_min</t>
-  </si>
-  <si>
-    <t>severe_wash_max</t>
+    <t>final_msni_wash</t>
+  </si>
+  <si>
+    <t>final_msni_wash_min</t>
+  </si>
+  <si>
+    <t>final_msni_wash_max</t>
+  </si>
+  <si>
+    <t>final_msni_all_4</t>
+  </si>
+  <si>
+    <t>final_msni_all_4_min</t>
+  </si>
+  <si>
+    <t>final_msni_all_4_max</t>
+  </si>
+  <si>
+    <t>final_msni_all_3</t>
+  </si>
+  <si>
+    <t>final_msni_all_3_min</t>
+  </si>
+  <si>
+    <t>final_msni_all_3_max</t>
+  </si>
+  <si>
+    <t>final_msni_all_2</t>
+  </si>
+  <si>
+    <t>final_msni_all_2_min</t>
+  </si>
+  <si>
+    <t>final_msni_all_2_max</t>
+  </si>
+  <si>
+    <t>final_msni_all_1</t>
+  </si>
+  <si>
+    <t>final_msni_all_1_min</t>
+  </si>
+  <si>
+    <t>final_msni_all_1_max</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">HC - Capacity Gap (coping mechanism) </t>
+  </si>
+  <si>
+    <t>% HH unable to afford basic needs (% HH taking on debt due to healthcare, food, education, or basic household expenditures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH reporting healthcare, food, education or basic HH expenditure as the primary reason for taking on debt
+</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>0.59104629872214</t>
+  </si>
+  <si>
+    <t>0.56778930320224</t>
+  </si>
+  <si>
+    <t>0.614303294242039</t>
+  </si>
+  <si>
+    <t>% of households relying exclusively on humanitarian assistance as their main source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH reporting humanitarian assistance as a primary source of income
+</t>
+  </si>
+  <si>
+    <t>0.0214663340784481</t>
+  </si>
+  <si>
+    <t>0.0192589624390703</t>
+  </si>
+  <si>
+    <t>0.0236737057178259</t>
+  </si>
+  <si>
+    <t>Lilveihoods Coping Strategy (LCS)</t>
+  </si>
+  <si>
+    <t>HH employing crisis or emergency coping strategies to cope with a lack of food or money to buy food</t>
+  </si>
+  <si>
+    <t>0.17522168363302</t>
+  </si>
+  <si>
+    <t>0.159743156596712</t>
+  </si>
+  <si>
+    <t>0.190700210669328</t>
+  </si>
+  <si>
     <t>MSNI</t>
   </si>
   <si>
-    <t xml:space="preserve">HC - Capacity Gap (coping mechanism) </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>0.497211460838034</t>
-  </si>
-  <si>
-    <t>0.473731163147351</t>
-  </si>
-  <si>
-    <t>0.520691758528717</t>
+    <t>0.641048600422348</t>
+  </si>
+  <si>
+    <t>0.618057132903774</t>
+  </si>
+  <si>
+    <t>0.664040067940922</t>
   </si>
   <si>
     <t>HC - Vulnerability</t>
   </si>
   <si>
+    <t>% of household members with disability  ("lots of difficulty" or "cannot do at all" one of the following activities: seeing, hearing, walking/climbing steps, remembering/concerntrating, self-care, communicating)</t>
+  </si>
+  <si>
+    <t>At least one member reporting lots of difficulties or cannot do at all in at least one domain</t>
+  </si>
+  <si>
+    <t>0.0952392333752703</t>
+  </si>
+  <si>
+    <t>0.0806522825888263</t>
+  </si>
+  <si>
+    <t>0.109826184161714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of single female-headed households (separated, divorced, widowed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH is headed by a single female
+</t>
+  </si>
+  <si>
+    <t>0.0797257016223195</t>
+  </si>
+  <si>
+    <t>0.0685904803196498</t>
+  </si>
+  <si>
+    <t>0.0908609229249892</t>
+  </si>
+  <si>
+    <t>% HH with at least one individual with a chronic health condition</t>
+  </si>
+  <si>
+    <t>At least one member of the HH is reporting a chronic health condition (heart disease, hypertension, blood disease, cancer, lung disease, diabetes, renal diseases)</t>
+  </si>
+  <si>
+    <t>0.410697604066422</t>
+  </si>
+  <si>
+    <t>0.387918972682344</t>
+  </si>
+  <si>
+    <t>0.433476235450499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH missing at least one key household or individual document </t>
+  </si>
+  <si>
+    <t>At least one member of the HH is reporting missing a key individual or HH document (national ID, nationality certificate , unified ID, birth certificate, PDS card)</t>
+  </si>
+  <si>
+    <t>0.543451090464165</t>
+  </si>
+  <si>
+    <t>0.520651039650827</t>
+  </si>
+  <si>
+    <t>0.566251141277503</t>
+  </si>
+  <si>
+    <t>% of households not intending to return to their AoO because of security/safety-related concerns</t>
+  </si>
+  <si>
+    <t>HH is reporting security/safety concerns as a main barrier for return (fear/trauma associated with AoO, lack of security forces, presence of explosive hazards, fear of discrimination, lack of safety and security for women)</t>
+  </si>
+  <si>
+    <t>0.520192305283162</t>
+  </si>
+  <si>
+    <t>0.501053207258533</t>
+  </si>
+  <si>
+    <t>0.539331403307792</t>
+  </si>
+  <si>
+    <t>% of households without access to soap</t>
+  </si>
+  <si>
+    <t>No soap available in HH</t>
+  </si>
+  <si>
+    <t>0.011335459683713</t>
+  </si>
+  <si>
+    <t>0.00788180763633032</t>
+  </si>
+  <si>
+    <t>0.0147891117310956</t>
+  </si>
+  <si>
+    <t>% of HH with at least one member above the age of 60</t>
+  </si>
+  <si>
+    <t>At least one HH member above the age of 60</t>
+  </si>
+  <si>
+    <t>0.157561764658583</t>
+  </si>
+  <si>
+    <t>0.139833141790355</t>
+  </si>
+  <si>
+    <t>0.175290387526811</t>
+  </si>
+  <si>
     <t>No or Minimal</t>
   </si>
   <si>
@@ -461,6 +1034,63 @@
     <t>HC - LSG / Education</t>
   </si>
   <si>
+    <t>% of households reporting barriers to education related to lack of household resources</t>
+  </si>
+  <si>
+    <t>HH reporting barriers to education that are related to a lack of household resources (cannot afford to pay for school-related expenses, children busy working or supporting the household)</t>
+  </si>
+  <si>
+    <t>0.307990433448065</t>
+  </si>
+  <si>
+    <t>0.259317024451756</t>
+  </si>
+  <si>
+    <t>0.356663842444374</t>
+  </si>
+  <si>
+    <t>% children not attending formal or informal education regularly (at least 4 days a week) prior to the COVID-19 outbreak</t>
+  </si>
+  <si>
+    <t>At least one child in HH was not attending formal or informal education regularly (at least 4 days per week) prior to the covid-19 outbreak</t>
+  </si>
+  <si>
+    <t>0.106481980023031</t>
+  </si>
+  <si>
+    <t>0.0931941551477494</t>
+  </si>
+  <si>
+    <t>0.119769804898313</t>
+  </si>
+  <si>
+    <t>All children in HH weren NOT attending formal or informal education regularly (at least 4 days per week) prior to the covid-19 outbreak</t>
+  </si>
+  <si>
+    <t>0.0220681389005325</t>
+  </si>
+  <si>
+    <t>0.0162849589916434</t>
+  </si>
+  <si>
+    <t>0.0278513188094216</t>
+  </si>
+  <si>
+    <t>% of HH without a functioning primary or secondary school within 2km of dwellings</t>
+  </si>
+  <si>
+    <t>HH reporting that there's no primary or secondary school present within 2km of dwellings</t>
+  </si>
+  <si>
+    <t>0.128863924213491</t>
+  </si>
+  <si>
+    <t>0.113634428014341</t>
+  </si>
+  <si>
+    <t>0.144093420412642</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -482,15 +1112,6 @@
     <t>0.0964914296210236</t>
   </si>
   <si>
-    <t>0.0220681389005325</t>
-  </si>
-  <si>
-    <t>0.0162849589916434</t>
-  </si>
-  <si>
-    <t>0.0278513188094216</t>
-  </si>
-  <si>
     <t>0.106493808729645</t>
   </si>
   <si>
@@ -503,6 +1124,87 @@
     <t>HC - LSG / Livelihoods</t>
   </si>
   <si>
+    <t>% of households with at least one member in temporary employment</t>
+  </si>
+  <si>
+    <t>At least one HH member in temporary or seasonal employment</t>
+  </si>
+  <si>
+    <t>0.395520440168392</t>
+  </si>
+  <si>
+    <t>0.369954084669359</t>
+  </si>
+  <si>
+    <t>0.421086795667425</t>
+  </si>
+  <si>
+    <t>% HH with at least one adult (18+) unemployed and seeking work</t>
+  </si>
+  <si>
+    <t>At least one adult in HH unemployed and seeking work</t>
+  </si>
+  <si>
+    <t>0.109344096875958</t>
+  </si>
+  <si>
+    <t>0.0967566679570826</t>
+  </si>
+  <si>
+    <t>0.121931525794833</t>
+  </si>
+  <si>
+    <t>% of households whose average monthly income [from employment and pension] was less than 90,000 per person a month</t>
+  </si>
+  <si>
+    <t>Income p/m is less than 90'000 IQD</t>
+  </si>
+  <si>
+    <t>0.604900589797657</t>
+  </si>
+  <si>
+    <t>0.58240887826275</t>
+  </si>
+  <si>
+    <t>0.627392301332564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH with debt value &gt; 505,000 IQD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH has total debt value &gt; 505,000 IQD </t>
+  </si>
+  <si>
+    <t>0.546081085522765</t>
+  </si>
+  <si>
+    <t>0.522677065277656</t>
+  </si>
+  <si>
+    <t>0.569485105767873</t>
+  </si>
+  <si>
+    <t>% of HH where at least one member has lost their job permanently or temporarily as a result of covid</t>
+  </si>
+  <si>
+    <t>At least one member has lost their job either permanently or temporarily as a result of COVID-19</t>
+  </si>
+  <si>
+    <t>0.992457057803609</t>
+  </si>
+  <si>
+    <t>0.987681019271023</t>
+  </si>
+  <si>
+    <t>0.997233096336195</t>
+  </si>
+  <si>
+    <t>% of HH unable to afford basic basic needs (% HH taking on debt due to healthcare, food, education, or basic household expenditure)</t>
+  </si>
+  <si>
+    <t>HH unable to afford basic needs (taking on debt due to healthcare, food, education or basic household expenditure)</t>
+  </si>
+  <si>
     <t>0.168092182002618</t>
   </si>
   <si>
@@ -551,6 +1253,51 @@
     <t>HC - LSG / Food Security</t>
   </si>
   <si>
+    <t>Food Consumption Score (FCS)</t>
+  </si>
+  <si>
+    <t>HH has borderline OR poor FCS</t>
+  </si>
+  <si>
+    <t>0.0267056678441309</t>
+  </si>
+  <si>
+    <t>0.0230598766904784</t>
+  </si>
+  <si>
+    <t>0.0303514589977834</t>
+  </si>
+  <si>
+    <t>Food Expenditure share (FES)</t>
+  </si>
+  <si>
+    <t>Food expenditure share of total expenditure is &gt; 65%</t>
+  </si>
+  <si>
+    <t>0.55143238862532</t>
+  </si>
+  <si>
+    <t>0.528827406202622</t>
+  </si>
+  <si>
+    <t>0.574037371048018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Hunger Scale </t>
+  </si>
+  <si>
+    <t>HH has moderate to severe (2 - 6) Household Hunger Score</t>
+  </si>
+  <si>
+    <t>0.0260521242383705</t>
+  </si>
+  <si>
+    <t>0.0205447856249498</t>
+  </si>
+  <si>
+    <t>0.0315594628517913</t>
+  </si>
+  <si>
     <t>0.416006886216278</t>
   </si>
   <si>
@@ -578,18 +1325,132 @@
     <t>0.0100399397840454</t>
   </si>
   <si>
-    <t>0.0260521242383705</t>
-  </si>
-  <si>
-    <t>0.0205447856249498</t>
-  </si>
-  <si>
-    <t>0.0315594628517913</t>
-  </si>
-  <si>
     <t>HC - LSG / Protection</t>
   </si>
   <si>
+    <t>% HH with at least one person under (&lt;18) working</t>
+  </si>
+  <si>
+    <t>At least one child in HH working or contributing to HH income</t>
+  </si>
+  <si>
+    <t>0.0796259580374582</t>
+  </si>
+  <si>
+    <t>0.064562247441528</t>
+  </si>
+  <si>
+    <t>0.0946896686333883</t>
+  </si>
+  <si>
+    <t>% of households with presence of child marriage</t>
+  </si>
+  <si>
+    <t>At least one child in HH is married</t>
+  </si>
+  <si>
+    <t>0.00876244888272795</t>
+  </si>
+  <si>
+    <t>0.00317891074039649</t>
+  </si>
+  <si>
+    <t>0.0143459870250594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % of HH reporting at least one member with psychosocial distress (proxy data with behaviour change)</t>
+  </si>
+  <si>
+    <t>At least one member in HH is reporting psychosocial distress</t>
+  </si>
+  <si>
+    <t>0.999085503061083</t>
+  </si>
+  <si>
+    <t>0.997571810689509</t>
+  </si>
+  <si>
+    <t>1.00059919543266</t>
+  </si>
+  <si>
+    <t>% women and girls who avoid areas because they feel unsafe there</t>
+  </si>
+  <si>
+    <t>Women and girls avoid at least 1 area because they feel unsafe there</t>
+  </si>
+  <si>
+    <t>0.981475441559605</t>
+  </si>
+  <si>
+    <t>0.950694939115299</t>
+  </si>
+  <si>
+    <t>1.01225594400391</t>
+  </si>
+  <si>
+    <t>HH missing at least one key individual or HH document (nationality certificate, birth certificate, ID card, PDS card)</t>
+  </si>
+  <si>
+    <t>% HH lacking secure tenure</t>
+  </si>
+  <si>
+    <t>HH is reporting that their house/apartment is under dispute and/or no valid HLP documentation</t>
+  </si>
+  <si>
+    <t>0.394589551902316</t>
+  </si>
+  <si>
+    <t>0.37213001651038</t>
+  </si>
+  <si>
+    <t>0.417049087294253</t>
+  </si>
+  <si>
+    <t>% HHs reporting risk of eviction</t>
+  </si>
+  <si>
+    <t>HH is reporting being at risk of eviction</t>
+  </si>
+  <si>
+    <t>0.0206119284688122</t>
+  </si>
+  <si>
+    <t>0.0140545012543203</t>
+  </si>
+  <si>
+    <t>0.0271693556833042</t>
+  </si>
+  <si>
+    <t>% of children under 18 currently not residing in the HH</t>
+  </si>
+  <si>
+    <t>At least one child not residing in HH</t>
+  </si>
+  <si>
+    <t>0.00205654057376452</t>
+  </si>
+  <si>
+    <t>0.00132476522559541</t>
+  </si>
+  <si>
+    <t>0.00278831592193362</t>
+  </si>
+  <si>
+    <t>% of HHs that have suffered incidents affecting HH members in the last 30 days</t>
+  </si>
+  <si>
+    <t>At least one member in HH has experienced a safety or security incident in the past 30 days</t>
+  </si>
+  <si>
+    <t>0.0051951175649146</t>
+  </si>
+  <si>
+    <t>0.00339826105226674</t>
+  </si>
+  <si>
+    <t>0.00699197407756245</t>
+  </si>
+  <si>
     <t>0.427826232576537</t>
   </si>
   <si>
@@ -638,6 +1499,66 @@
     <t>HC - LSG / Health</t>
   </si>
   <si>
+    <t>Percentage of population that cannot access primary healthcare within one hour’s walk from dwellings</t>
+  </si>
+  <si>
+    <t>HH reporting that there is no health clinic or hospital within a one hour's walk from dwellings</t>
+  </si>
+  <si>
+    <t>0.0364376092567191</t>
+  </si>
+  <si>
+    <t>0.0298339762673484</t>
+  </si>
+  <si>
+    <t>0.0430412422460898</t>
+  </si>
+  <si>
+    <t>% Women of reproductive age (12-49) with access to specialized reproductive health services</t>
+  </si>
+  <si>
+    <t>HH doesn't have access to specialized reproductive health services</t>
+  </si>
+  <si>
+    <t>0.276625078100218</t>
+  </si>
+  <si>
+    <t>0.258093825817766</t>
+  </si>
+  <si>
+    <t>0.29515633038267</t>
+  </si>
+  <si>
+    <t>% HH spending more than x% of their total expenditure on healthcare</t>
+  </si>
+  <si>
+    <t>HH spending more than 20% of total expenditure on healthcare</t>
+  </si>
+  <si>
+    <t>0.288998808544247</t>
+  </si>
+  <si>
+    <t>0.26753921068932</t>
+  </si>
+  <si>
+    <t>0.310458406399173</t>
+  </si>
+  <si>
+    <t>% of HH experiencing difficulties when accessing health services in the past 3months</t>
+  </si>
+  <si>
+    <t>HH is reporting difficulties when trying to access health services in the past 3 months</t>
+  </si>
+  <si>
+    <t>0.384854282804125</t>
+  </si>
+  <si>
+    <t>0.309520251695117</t>
+  </si>
+  <si>
+    <t>0.460188313913132</t>
+  </si>
+  <si>
     <t>0.484363324954693</t>
   </si>
   <si>
@@ -668,6 +1589,51 @@
     <t>HC - LSG / SNFI</t>
   </si>
   <si>
+    <t>% HHs reporting at least 2 shelter improvements</t>
+  </si>
+  <si>
+    <t>HH is reporting more than one shelter improvement</t>
+  </si>
+  <si>
+    <t>0.162563362468624</t>
+  </si>
+  <si>
+    <t>0.146954009449898</t>
+  </si>
+  <si>
+    <t>0.178172715487351</t>
+  </si>
+  <si>
+    <t>% HHs needing basic NFI items</t>
+  </si>
+  <si>
+    <t>HH is reporting needing at least one NFI</t>
+  </si>
+  <si>
+    <t>0.666433882016538</t>
+  </si>
+  <si>
+    <t>0.642544810765093</t>
+  </si>
+  <si>
+    <t>0.690322953267983</t>
+  </si>
+  <si>
+    <t>% of people living under critical shelter conditions (aggregated indicator)</t>
+  </si>
+  <si>
+    <t>HH is living in critical shelter</t>
+  </si>
+  <si>
+    <t>0.102338287562328</t>
+  </si>
+  <si>
+    <t>0.0929629572872263</t>
+  </si>
+  <si>
+    <t>0.111713617837429</t>
+  </si>
+  <si>
     <t>0.303170974066367</t>
   </si>
   <si>
@@ -695,15 +1661,6 @@
     <t>0.147493255987535</t>
   </si>
   <si>
-    <t>0.102338287562328</t>
-  </si>
-  <si>
-    <t>0.0929629572872263</t>
-  </si>
-  <si>
-    <t>0.111713617837429</t>
-  </si>
-  <si>
     <t>0.235444700997416</t>
   </si>
   <si>
@@ -716,6 +1673,66 @@
     <t>HC - LSG / WASH</t>
   </si>
   <si>
+    <t>% HH without access to an improved water source</t>
+  </si>
+  <si>
+    <t>HH does not have access to improved water source</t>
+  </si>
+  <si>
+    <t>0.052811353554127</t>
+  </si>
+  <si>
+    <t>0.0425195362892532</t>
+  </si>
+  <si>
+    <t>0.0631031708190007</t>
+  </si>
+  <si>
+    <t>% HH without access to a sufficient quantity of water for drinking and domestic purposes</t>
+  </si>
+  <si>
+    <t>HH doesn't have enough water for drinking OR cooking OR personal hygiene</t>
+  </si>
+  <si>
+    <t>0.0319955877932222</t>
+  </si>
+  <si>
+    <t>0.0248890484177026</t>
+  </si>
+  <si>
+    <t>0.0391021271687418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH without access to improved functional sanitation facilities </t>
+  </si>
+  <si>
+    <t>HH does not have access to an improved santiation facility</t>
+  </si>
+  <si>
+    <t>0.123383896084795</t>
+  </si>
+  <si>
+    <t>0.108122537390988</t>
+  </si>
+  <si>
+    <t>0.138645254778602</t>
+  </si>
+  <si>
+    <t>% HH treating their water prior to drinking</t>
+  </si>
+  <si>
+    <t>HH is treating their water prior to drinking</t>
+  </si>
+  <si>
+    <t>0.0260920994048646</t>
+  </si>
+  <si>
+    <t>0.0197756362562309</t>
+  </si>
+  <si>
+    <t>0.0324085625534983</t>
+  </si>
+  <si>
     <t>0.854005903119777</t>
   </si>
   <si>
@@ -743,15 +1760,6 @@
     <t>0.0611870234539046</t>
   </si>
   <si>
-    <t>0.0319955877932222</t>
-  </si>
-  <si>
-    <t>0.0248890484177026</t>
-  </si>
-  <si>
-    <t>0.0391021271687418</t>
-  </si>
-  <si>
     <t>0.0823831940762311</t>
   </si>
   <si>
@@ -759,6 +1767,45 @@
   </si>
   <si>
     <t>0.0951130753661189</t>
+  </si>
+  <si>
+    <t>Final MSNI</t>
+  </si>
+  <si>
+    <t>0.730958138075951</t>
+  </si>
+  <si>
+    <t>0.708592198125226</t>
+  </si>
+  <si>
+    <t>0.753324078026676</t>
+  </si>
+  <si>
+    <t>0.783181311604157</t>
+  </si>
+  <si>
+    <t>0.765040954006238</t>
+  </si>
+  <si>
+    <t>0.801321669202076</t>
+  </si>
+  <si>
+    <t>0.941929580317904</t>
+  </si>
+  <si>
+    <t>0.933608151441174</t>
+  </si>
+  <si>
+    <t>0.950251009194634</t>
+  </si>
+  <si>
+    <t>0.991273456390082</t>
+  </si>
+  <si>
+    <t>0.98623137584284</t>
+  </si>
+  <si>
+    <t>0.996315536937325</t>
   </si>
 </sst>
 </file>
@@ -1167,1441 +2214,3556 @@
       <c r="DO1" t="s">
         <v>118</v>
       </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>241</v>
+      </c>
+      <c r="II1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="N2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="R2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="T2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="V2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="W2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="Y2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AA2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="AB2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AC2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AD2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AG2" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="AH2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AI2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AJ2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AK2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AL2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AM2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AN2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AO2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AP2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AQ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AR2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AS2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AT2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AU2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AV2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="AW2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AX2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AY2" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="AZ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BA2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BB2" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="BC2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BD2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BE2" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="BF2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BG2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BH2" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="BI2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BJ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BK2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="BL2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BM2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BN2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="BO2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BP2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BQ2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="BR2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BS2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BT2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="BU2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BV2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BW2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="BX2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BY2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BZ2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CA2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CB2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CC2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CD2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CE2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CF2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CG2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CH2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CI2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CJ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CK2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CL2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CM2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CN2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CO2" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="CP2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CQ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CR2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="CS2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CT2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CU2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="CV2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CW2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CX2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="CY2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CZ2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DA2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="DB2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DC2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DD2" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="DE2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DF2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DG2" t="s">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="DH2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DI2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DJ2" t="s">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="DK2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DL2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DM2" t="s">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="DN2" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DO2" t="s">
-        <v>119</v>
+        <v>260</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>278</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>436</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>260</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>260</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>436</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>436</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>278</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>493</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>493</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>493</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>493</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>523</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>523</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>523</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>278</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>278</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>278</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>278</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>278</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>278</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>260</v>
+      </c>
+      <c r="II2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>278</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>260</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="N3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Q3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="R3" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="T3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="W3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X3" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Z3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AA3" t="s">
-        <v>148</v>
+        <v>303</v>
       </c>
       <c r="AB3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AD3" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="AE3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AF3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AG3" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="AH3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AI3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AJ3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AK3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AL3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AM3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AN3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AO3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AP3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AQ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AR3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AS3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AT3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AU3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AV3" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AW3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AX3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AY3" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="AZ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BA3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BB3" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="BC3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BD3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BE3" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="BF3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BG3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BH3" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
       <c r="BI3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BJ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BK3" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="BL3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BM3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BN3" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="BO3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BP3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BQ3" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="BR3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BS3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BT3" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="BU3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BV3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BW3" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="BX3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BY3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BZ3" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="CA3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CB3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CC3" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="CD3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CE3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CF3" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="CG3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CH3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CI3" t="s">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="CJ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CK3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CL3" t="s">
-        <v>217</v>
+        <v>389</v>
       </c>
       <c r="CM3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CN3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CO3" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="CP3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CQ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CR3" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="CS3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CT3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CU3" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="CV3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CW3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CX3" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="CY3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CZ3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DA3" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="DB3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DC3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DD3" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="DE3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DF3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DG3" t="s">
-        <v>233</v>
+        <v>412</v>
       </c>
       <c r="DH3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DI3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DJ3" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="DK3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DL3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DM3" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="DN3" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DO3" t="s">
-        <v>119</v>
+        <v>260</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>437</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>442</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>447</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>452</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>298</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>458</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>260</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>260</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>463</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>468</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>260</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>473</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>436</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>436</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>436</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>436</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>436</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>494</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>499</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>504</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>260</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>509</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>493</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>493</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>493</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>493</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>524</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>529</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>534</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>260</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>523</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>523</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>523</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>523</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>523</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>552</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>557</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>562</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>567</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>260</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>551</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>551</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>551</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>260</v>
+      </c>
+      <c r="II3" t="s">
+        <v>551</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>551</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>584</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>584</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>584</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>584</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>260</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="N4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="R4" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="T4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="V4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="W4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X4" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="Y4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AA4" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="AB4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AC4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AD4" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="AE4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AF4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AG4" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="AH4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AI4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AK4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AL4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AM4" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="AN4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AP4" t="s">
-        <v>136</v>
+        <v>326</v>
       </c>
       <c r="AQ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AR4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AS4" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="AT4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AU4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AV4" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="AW4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AX4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AY4" t="s">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="AZ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BA4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BB4" t="s">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="BC4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BD4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BE4" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="BF4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BG4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BH4" t="s">
-        <v>140</v>
+        <v>354</v>
       </c>
       <c r="BI4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BJ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BK4" t="s">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="BL4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BM4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BN4" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="BO4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BP4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BQ4" t="s">
-        <v>136</v>
+        <v>326</v>
       </c>
       <c r="BR4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BS4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BT4" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="BU4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BV4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BW4" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="BX4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BY4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BZ4" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="CA4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CB4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CC4" t="s">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="CD4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CE4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CF4" t="s">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="CG4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CH4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CI4" t="s">
-        <v>144</v>
+        <v>385</v>
       </c>
       <c r="CJ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CK4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CL4" t="s">
-        <v>128</v>
+        <v>390</v>
       </c>
       <c r="CM4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CN4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CO4" t="s">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="CP4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CQ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CR4" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="CS4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CT4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CU4" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="CV4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CW4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CX4" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="CY4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CZ4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DA4" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="DB4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DC4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DD4" t="s">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="DE4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DF4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DG4" t="s">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="DH4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DI4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DJ4" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="DK4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DL4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DM4" t="s">
-        <v>144</v>
+        <v>423</v>
       </c>
       <c r="DN4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DO4" t="s">
-        <v>119</v>
+        <v>260</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>318</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>322</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>326</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>330</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>438</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>443</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>448</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>453</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>457</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>459</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>260</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>260</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>464</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>469</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>260</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>474</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>318</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>322</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>326</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>334</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>495</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>500</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>505</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>260</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>510</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>318</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>322</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>326</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>334</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>525</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>530</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>535</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>260</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>318</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>322</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>326</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>334</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>553</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>558</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>563</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>568</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>260</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>318</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>322</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>326</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>260</v>
+      </c>
+      <c r="II4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>334</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>334</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>334</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>334</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>334</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>260</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="R5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="U5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="V5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="X5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Z5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AA5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AD5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AE5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AG5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AH5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AI5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AJ5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AK5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AL5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AM5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AN5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AP5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AQ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AR5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AS5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AT5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AU5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AV5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AW5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AX5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="AY5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="AZ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BA5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BB5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BC5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BD5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BE5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BF5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BG5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BH5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BI5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BJ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BK5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BL5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BM5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BN5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BO5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BP5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BQ5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BR5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BS5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BT5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BU5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BV5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BW5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="BX5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BY5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="BZ5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CA5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CB5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CC5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CD5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CE5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CF5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CG5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CH5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CI5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CJ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CK5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CL5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CM5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CN5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CO5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CP5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CQ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CR5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CS5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CT5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CU5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CV5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CW5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CX5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="CY5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="CZ5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DA5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="DB5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DC5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DD5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="DE5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DF5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DG5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="DH5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DI5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DJ5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="DK5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DL5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DM5" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="DN5" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="DO5" t="s">
-        <v>119</v>
+        <v>260</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>264</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>264</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>264</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>260</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>264</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>260</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>260</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>260</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>264</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>260</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>264</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>260</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>260</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>264</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>264</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>260</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IB5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>264</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>260</v>
+      </c>
+      <c r="II5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IK5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IM5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>264</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>260</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6">
@@ -2612,355 +5774,778 @@
         <v>#N/A</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="L6" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="R6" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="S6" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="T6" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="U6" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="V6" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="X6" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="Z6" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="AA6" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="AB6" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="AC6" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="AD6" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="AE6" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="AF6" t="s">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="AG6" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="AH6" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="AI6" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="AJ6" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="AK6" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="AL6" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="AM6" t="s">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="AN6" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="AO6" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="AP6" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="AQ6" t="s">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="AR6" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="AS6" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="AT6" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="AU6" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="AV6" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="AW6" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="AX6" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="AY6" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="AZ6" t="s">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="BA6" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="BB6" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
       <c r="BC6" t="s">
-        <v>183</v>
+        <v>347</v>
       </c>
       <c r="BD6" t="s">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="BE6" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="BF6" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="BG6" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
       <c r="BH6" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="BI6" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="BJ6" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="BK6" t="s">
-        <v>192</v>
+        <v>358</v>
       </c>
       <c r="BL6" t="s">
-        <v>193</v>
+        <v>358</v>
       </c>
       <c r="BM6" t="s">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="BN6" t="s">
-        <v>195</v>
+        <v>359</v>
       </c>
       <c r="BO6" t="s">
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="BP6" t="s">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="BQ6" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="BR6" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="BS6" t="s">
-        <v>200</v>
+        <v>364</v>
       </c>
       <c r="BT6" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="BU6" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="BV6" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="BW6" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="BX6" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="BY6" t="s">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="BZ6" t="s">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="CA6" t="s">
-        <v>209</v>
+        <v>372</v>
       </c>
       <c r="CB6" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="CC6" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="CD6" t="s">
-        <v>212</v>
+        <v>377</v>
       </c>
       <c r="CE6" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="CF6" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="CG6" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="CH6" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="CI6" t="s">
-        <v>214</v>
+        <v>386</v>
       </c>
       <c r="CJ6" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
       <c r="CK6" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="CL6" t="s">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="CM6" t="s">
-        <v>219</v>
+        <v>392</v>
       </c>
       <c r="CN6" t="s">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="CO6" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="CP6" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="CQ6" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="CR6" t="s">
-        <v>224</v>
+        <v>396</v>
       </c>
       <c r="CS6" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
       <c r="CT6" t="s">
-        <v>226</v>
+        <v>398</v>
       </c>
       <c r="CU6" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="CV6" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="CW6" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="CX6" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="CY6" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="CZ6" t="s">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="DA6" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="DB6" t="s">
-        <v>235</v>
+        <v>406</v>
       </c>
       <c r="DC6" t="s">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="DD6" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="DE6" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
       <c r="DF6" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="DG6" t="s">
-        <v>240</v>
+        <v>414</v>
       </c>
       <c r="DH6" t="s">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="DI6" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="DJ6" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="DK6" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="DL6" t="s">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="DM6" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="DN6" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="DO6" t="s">
-        <v>248</v>
+        <v>426</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>427</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>428</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>429</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>430</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>431</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>432</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>433</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>434</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>435</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>424</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>425</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>426</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>439</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>440</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>441</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>444</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>445</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>446</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>449</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>450</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>451</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>454</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>455</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>456</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>300</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>301</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>460</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>461</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>462</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>465</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>466</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>467</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>470</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>471</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>472</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>475</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>476</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>477</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>478</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>479</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>480</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>481</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>482</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>483</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>484</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>485</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>486</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>487</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>488</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>489</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>490</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>491</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>492</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>496</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>497</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>498</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>501</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>502</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>503</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>506</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>507</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>508</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>511</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>512</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>513</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>514</v>
+      </c>
+      <c r="GE6" t="s">
+        <v>515</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>516</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>517</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>518</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>519</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>520</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>521</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>522</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>520</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>521</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>522</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>526</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>527</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>528</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>531</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>532</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>533</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>536</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>537</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>538</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>539</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>540</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>541</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>542</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>543</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>544</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>545</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>546</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>547</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>536</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>537</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>538</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>548</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>549</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>550</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>554</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>556</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>559</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>560</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>561</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>564</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>565</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>566</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>569</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>570</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>571</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>572</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>573</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>574</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>575</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>576</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>577</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>578</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>579</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>580</v>
+      </c>
+      <c r="II6" t="s">
+        <v>559</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>560</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>561</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>581</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>582</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>583</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>585</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>586</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>587</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>588</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>589</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>590</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>592</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>593</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>594</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>595</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
